--- a/eppz!kit/iOS device model identifiers.xlsx
+++ b/eppz!kit/iOS device model identifiers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="-5000" windowWidth="36460" windowHeight="22540" tabRatio="500"/>
+    <workbookView xWindow="38420" yWindow="-6000" windowWidth="36460" windowHeight="22540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="iPad" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="112">
   <si>
     <t>Generation</t>
   </si>
@@ -314,12 +314,103 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>iPad4,1</t>
+  </si>
+  <si>
+    <t>iPad Air</t>
+  </si>
+  <si>
+    <r>
+      <t>Wi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Palatino Bold"/>
+      </rPr>
+      <t>‑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fi</t>
+    </r>
+  </si>
+  <si>
+    <t>A1474</t>
+  </si>
+  <si>
+    <t>iPad4,2</t>
+  </si>
+  <si>
+    <t>A1475</t>
+  </si>
+  <si>
+    <t>Cellular</t>
+  </si>
+  <si>
+    <t>iPad4,4</t>
+  </si>
+  <si>
+    <t>iPad4,5</t>
+  </si>
+  <si>
+    <t>iPad mini 2G</t>
+  </si>
+  <si>
+    <t>A1489</t>
+  </si>
+  <si>
+    <t>A1517</t>
+  </si>
+  <si>
+    <t>iPhone6,1</t>
+  </si>
+  <si>
+    <t>iPhone6,2</t>
+  </si>
+  <si>
+    <t>iPhone5,3</t>
+  </si>
+  <si>
+    <t>iPhone5,4</t>
+  </si>
+  <si>
+    <t>iPhone 5C</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>A1456 / A1532</t>
+  </si>
+  <si>
+    <t>A1507 / A1516 / A1526 / A1529</t>
+  </si>
+  <si>
+    <t>iPhone 5S</t>
+  </si>
+  <si>
+    <t>A1433 / A1533</t>
+  </si>
+  <si>
+    <t>A1457 / A1518 / A1528 / A1530</t>
+  </si>
+  <si>
+    <t>http://theiphonewiki.com/wiki/Models</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -417,6 +508,24 @@
       <color theme="0" tint="-0.499984740745262"/>
       <name val="Consolas"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Palatino Bold"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Consolas"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -441,7 +550,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -454,8 +563,40 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -504,8 +645,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="44">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -517,6 +664,38 @@
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -846,11 +1025,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F120"/>
+  <dimension ref="A1:F128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F35" sqref="F32:F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -858,9 +1037,9 @@
     <col min="1" max="1" width="10.83203125" style="8"/>
     <col min="2" max="2" width="10.83203125" style="14"/>
     <col min="3" max="3" width="10.83203125" style="4"/>
-    <col min="4" max="4" width="10.83203125" style="6"/>
+    <col min="4" max="4" width="20.83203125" style="6" customWidth="1"/>
     <col min="5" max="5" width="1" customWidth="1"/>
-    <col min="6" max="6" width="65.1640625" customWidth="1"/>
+    <col min="6" max="6" width="80.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="9" customFormat="1" ht="33" customHeight="1">
@@ -873,8 +1052,8 @@
       <c r="E1" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>87</v>
+      <c r="F1" s="19" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="12" customFormat="1" ht="14">
@@ -1159,300 +1338,412 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="17" customHeight="1">
-      <c r="A18" s="15"/>
-      <c r="F18" s="13" t="s">
-        <v>84</v>
+      <c r="A18" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="13" t="str">
+        <f t="shared" ref="F18" si="2">CONCATENATE("@""", A18, """ : @[ @""", B18, """, @""", C18, """, @""", D18, """ ],")</f>
+        <v>@"iPad4,1" : @[ @"iPad Air", @"Wi‑Fi", @"A1474" ],</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17" customHeight="1">
       <c r="A19" s="15" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="F19" s="13" t="str">
-        <f t="shared" ref="F19:F27" si="2">CONCATENATE("@""", A19, """ : @[ @""", B19, """, @""", C19, """, @""", D19, """ ],")</f>
-        <v>@"iPhone1,1" : @[ @"iPhone 2G", @"GSM", @"A1203" ],</v>
+        <f t="shared" ref="F19:F21" si="3">CONCATENATE("@""", A19, """ : @[ @""", B19, """, @""", C19, """, @""", D19, """ ],")</f>
+        <v>@"iPad4,2" : @[ @"iPad Air", @"Cellular", @"A1475" ],</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17" customHeight="1">
       <c r="A20" s="15" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>77</v>
+        <v>90</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="F20" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>@"iPhone1,2" : @[ @"iPhone 3G", @"GSM", @"A1241 / A13241" ],</v>
+        <f t="shared" si="3"/>
+        <v>@"iPad4,4" : @[ @"iPad mini 2G", @"Wi‑Fi", @"A1489" ],</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17" customHeight="1">
       <c r="A21" s="15" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>76</v>
+        <v>94</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="F21" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>@"iPhone2,1" : @[ @"iPhone 3GS", @"GSM", @"A1303 / A13251" ],</v>
+        <f t="shared" si="3"/>
+        <v>@"iPad4,5" : @[ @"iPad mini 2G", @"Cellular", @"A1517" ],</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17" customHeight="1">
-      <c r="A22" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>@"iPhone3,1" : @[ @"iPhone 4", @"GSM", @"A1332" ],</v>
+      <c r="A22" s="15"/>
+      <c r="F22" s="13" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="17" customHeight="1">
       <c r="A23" s="15" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>81</v>
+        <v>21</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="F23" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>@"iPhone3,2" : @[ @"iPhone 4", @"GSM Rev A", @"-" ],</v>
+        <f t="shared" ref="F23:F31" si="4">CONCATENATE("@""", A23, """ : @[ @""", B23, """, @""", C23, """, @""", D23, """ ],")</f>
+        <v>@"iPhone1,1" : @[ @"iPhone 2G", @"GSM", @"A1203" ],</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17" customHeight="1">
       <c r="A24" s="15" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F24" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>@"iPhone3,3" : @[ @"iPhone 4", @"CDMA", @"A1349" ],</v>
+        <f t="shared" si="4"/>
+        <v>@"iPhone1,2" : @[ @"iPhone 3G", @"GSM", @"A1241 / A13241" ],</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17" customHeight="1">
       <c r="A25" s="15" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F25" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>@"iPhone4,1" : @[ @"iPhone 4S", @"GSM+CDMA", @"A1387 / A14311" ],</v>
+        <f t="shared" si="4"/>
+        <v>@"iPhone2,1" : @[ @"iPhone 3GS", @"GSM", @"A1303 / A13251" ],</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17" customHeight="1">
       <c r="A26" s="15" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F26" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>@"iPhone5,1" : @[ @"iPhone 5", @"GSM", @"A1428" ],</v>
+        <f t="shared" si="4"/>
+        <v>@"iPhone3,1" : @[ @"iPhone 4", @"GSM", @"A1332" ],</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="17" customHeight="1">
       <c r="A27" s="15" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F27" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>@"iPhone5,2" : @[ @"iPhone 5", @"GSM+CDMA", @"A1429 / A14421" ],</v>
+        <f t="shared" si="4"/>
+        <v>@"iPhone3,2" : @[ @"iPhone 4", @"GSM Rev A", @"-" ],</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="17" customHeight="1">
-      <c r="A28" s="15"/>
-      <c r="F28" s="13" t="s">
-        <v>86</v>
+      <c r="A28" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>@"iPhone3,3" : @[ @"iPhone 4", @"CDMA", @"A1349" ],</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17" customHeight="1">
       <c r="A29" s="15" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>81</v>
+        <v>66</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="F29" s="13" t="str">
-        <f t="shared" ref="F29:F33" si="3">CONCATENATE("@""", A29, """ : @[ @""", B29, """, @""", C29, """, @""", D29, """ ],")</f>
-        <v>@"iPod1,1" : @[ @"iPod touch 1G", @"-", @"A1213" ],</v>
+        <f t="shared" si="4"/>
+        <v>@"iPhone4,1" : @[ @"iPhone 4S", @"GSM+CDMA", @"A1387 / A14311" ],</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17" customHeight="1">
       <c r="A30" s="15" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>81</v>
+        <v>68</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="F30" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>@"iPod2,1" : @[ @"iPod touch 2G", @"-", @"A1288" ],</v>
+        <f t="shared" si="4"/>
+        <v>@"iPhone5,1" : @[ @"iPhone 5", @"GSM", @"A1428" ],</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17" customHeight="1">
       <c r="A31" s="15" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>81</v>
+        <v>68</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="F31" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>@"iPod3,1" : @[ @"iPod touch 3G", @"-", @"A1318" ],</v>
+        <f t="shared" si="4"/>
+        <v>@"iPhone5,2" : @[ @"iPhone 5", @"GSM+CDMA", @"A1429 / A14421" ],</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17" customHeight="1">
       <c r="A32" s="15" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>81</v>
+        <v>104</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="F32" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>@"iPod4,1" : @[ @"iPod touch 4G", @"-", @"A1367" ],</v>
+        <f t="shared" ref="F32" si="5">CONCATENATE("@""", A32, """ : @[ @""", B32, """, @""", C32, """, @""", D32, """ ],")</f>
+        <v>@"iPhone5,3" : @[ @"iPhone 5C", @"GSM", @"A1456 / A1532" ],</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17" customHeight="1">
       <c r="A33" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F33" s="18" t="str">
+        <f t="shared" ref="F33" si="6">CONCATENATE("@""", A33, """ : @[ @""", B33, """, @""", C33, """, @""", D33, """ ],")</f>
+        <v>@"iPhone5,4" : @[ @"iPhone 5C", @"Global", @"A1507 / A1516 / A1526 / A1529" ],</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="17" customHeight="1">
+      <c r="A34" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F34" s="13" t="str">
+        <f t="shared" ref="F34" si="7">CONCATENATE("@""", A34, """ : @[ @""", B34, """, @""", C34, """, @""", D34, """ ],")</f>
+        <v>@"iPhone6,1" : @[ @"iPhone 5S", @"GSM", @"A1433 / A1533" ],</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="17" customHeight="1">
+      <c r="A35" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F35" s="13" t="str">
+        <f t="shared" ref="F35" si="8">CONCATENATE("@""", A35, """ : @[ @""", B35, """, @""", C35, """, @""", D35, """ ],")</f>
+        <v>@"iPhone6,2" : @[ @"iPhone 5S", @"Global", @"A1457 / A1518 / A1528 / A1530" ],</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="17" customHeight="1">
+      <c r="A36" s="15"/>
+      <c r="F36" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="17" customHeight="1">
+      <c r="A37" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="13" t="str">
+        <f t="shared" ref="F37:F41" si="9">CONCATENATE("@""", A37, """ : @[ @""", B37, """, @""", C37, """, @""", D37, """ ],")</f>
+        <v>@"iPod1,1" : @[ @"iPod touch 1G", @"-", @"A1213" ],</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="17" customHeight="1">
+      <c r="A38" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>@"iPod2,1" : @[ @"iPod touch 2G", @"-", @"A1288" ],</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="17" customHeight="1">
+      <c r="A39" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>@"iPod3,1" : @[ @"iPod touch 3G", @"-", @"A1318" ],</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="17" customHeight="1">
+      <c r="A40" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>@"iPod4,1" : @[ @"iPod touch 4G", @"-", @"A1367" ],</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="17" customHeight="1">
+      <c r="A41" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B41" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C41" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D41" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="F33" s="13" t="str">
-        <f t="shared" si="3"/>
+      <c r="F41" s="13" t="str">
+        <f t="shared" si="9"/>
         <v>@"iPod5,1" : @[ @"iPod touch 5G", @"-", @"A1421 / A1509" ],</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="15"/>
-      <c r="F34" s="13"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="15"/>
-      <c r="F35" s="13"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="15"/>
-      <c r="F36" s="13"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="15"/>
-      <c r="F37" s="13"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="15"/>
-      <c r="F38" s="13"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="15"/>
-      <c r="F39" s="13"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="15"/>
-      <c r="F40" s="13"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="15"/>
-      <c r="F41" s="13"/>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="15"/>
@@ -1463,35 +1754,35 @@
       <c r="F43" s="13"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="16"/>
+      <c r="A44" s="15"/>
       <c r="F44" s="13"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="16"/>
+      <c r="A45" s="15"/>
       <c r="F45" s="13"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="16"/>
+      <c r="A46" s="15"/>
       <c r="F46" s="13"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="16"/>
+      <c r="A47" s="15"/>
       <c r="F47" s="13"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="16"/>
+      <c r="A48" s="15"/>
       <c r="F48" s="13"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="16"/>
+      <c r="A49" s="15"/>
       <c r="F49" s="13"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="16"/>
+      <c r="A50" s="15"/>
       <c r="F50" s="13"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="16"/>
+      <c r="A51" s="15"/>
       <c r="F51" s="13"/>
     </row>
     <row r="52" spans="1:6">
@@ -1563,27 +1854,35 @@
       <c r="F68" s="13"/>
     </row>
     <row r="69" spans="1:6">
+      <c r="A69" s="16"/>
       <c r="F69" s="13"/>
     </row>
     <row r="70" spans="1:6">
+      <c r="A70" s="16"/>
       <c r="F70" s="13"/>
     </row>
     <row r="71" spans="1:6">
+      <c r="A71" s="16"/>
       <c r="F71" s="13"/>
     </row>
     <row r="72" spans="1:6">
+      <c r="A72" s="16"/>
       <c r="F72" s="13"/>
     </row>
     <row r="73" spans="1:6">
+      <c r="A73" s="16"/>
       <c r="F73" s="13"/>
     </row>
     <row r="74" spans="1:6">
+      <c r="A74" s="16"/>
       <c r="F74" s="13"/>
     </row>
     <row r="75" spans="1:6">
+      <c r="A75" s="16"/>
       <c r="F75" s="13"/>
     </row>
     <row r="76" spans="1:6">
+      <c r="A76" s="16"/>
       <c r="F76" s="13"/>
     </row>
     <row r="77" spans="1:6">
@@ -1717,12 +2016,37 @@
     </row>
     <row r="120" spans="6:6">
       <c r="F120" s="13"/>
+    </row>
+    <row r="121" spans="6:6">
+      <c r="F121" s="13"/>
+    </row>
+    <row r="122" spans="6:6">
+      <c r="F122" s="13"/>
+    </row>
+    <row r="123" spans="6:6">
+      <c r="F123" s="13"/>
+    </row>
+    <row r="124" spans="6:6">
+      <c r="F124" s="13"/>
+    </row>
+    <row r="125" spans="6:6">
+      <c r="F125" s="13"/>
+    </row>
+    <row r="126" spans="6:6">
+      <c r="F126" s="13"/>
+    </row>
+    <row r="127" spans="6:6">
+      <c r="F127" s="13"/>
+    </row>
+    <row r="128" spans="6:6">
+      <c r="F128" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/eppz!kit/iOS device model identifiers.xlsx
+++ b/eppz!kit/iOS device model identifiers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="38420" yWindow="-6000" windowWidth="36460" windowHeight="22540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="iPad" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="133">
   <si>
     <t>Generation</t>
   </si>
@@ -157,9 +157,6 @@
   </si>
   <si>
     <t>iPad3,6</t>
-  </si>
-  <si>
-    <t>iPad mini 1G</t>
   </si>
   <si>
     <t>A1432</t>
@@ -361,9 +358,6 @@
     <t>iPad4,5</t>
   </si>
   <si>
-    <t>iPad mini 2G</t>
-  </si>
-  <si>
     <t>A1489</t>
   </si>
   <si>
@@ -404,6 +398,75 @@
   </si>
   <si>
     <t>http://theiphonewiki.com/wiki/Models</t>
+  </si>
+  <si>
+    <t>iPad5,3</t>
+  </si>
+  <si>
+    <t>iPad5,4</t>
+  </si>
+  <si>
+    <t>iPad Air 2</t>
+  </si>
+  <si>
+    <t>A1566</t>
+  </si>
+  <si>
+    <t>A1567</t>
+  </si>
+  <si>
+    <t>iPad mini 2</t>
+  </si>
+  <si>
+    <t>iPad mini</t>
+  </si>
+  <si>
+    <t>iPad mini 3</t>
+  </si>
+  <si>
+    <t>iPad4,6</t>
+  </si>
+  <si>
+    <t>A1491</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>A1599</t>
+  </si>
+  <si>
+    <t>iPad4,7</t>
+  </si>
+  <si>
+    <t>iPad4,8</t>
+  </si>
+  <si>
+    <t>A1600</t>
+  </si>
+  <si>
+    <t>iPad4,9</t>
+  </si>
+  <si>
+    <t>A1601</t>
+  </si>
+  <si>
+    <t>iPhone7,2</t>
+  </si>
+  <si>
+    <t>iPhone7,1</t>
+  </si>
+  <si>
+    <t>iPhone 6</t>
+  </si>
+  <si>
+    <t>iPhone 6 Plus</t>
+  </si>
+  <si>
+    <t>A1549 / A1586</t>
+  </si>
+  <si>
+    <t>A1522 / A1524</t>
   </si>
 </sst>
 </file>
@@ -527,7 +590,7 @@
       <name val="Consolas"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -537,6 +600,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF55D3A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,7 +619,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="44">
+  <cellStyleXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -595,8 +664,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -642,17 +731,39 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="44">
+  <cellStyles count="64">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -680,6 +791,16 @@
     <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
@@ -696,6 +817,16 @@
     <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1025,11 +1156,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F128"/>
+  <dimension ref="A1:F136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F35" sqref="F32:F35"/>
+      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1043,17 +1174,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="9" customFormat="1" ht="33" customHeight="1">
-      <c r="A1" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="A1" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
       <c r="E1" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>111</v>
+        <v>86</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="12" customFormat="1" ht="14">
@@ -1070,10 +1201,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1082,7 +1213,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="3"/>
       <c r="F3" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" customHeight="1">
@@ -1093,10 +1224,10 @@
         <v>18</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="F4" s="13" t="str">
         <f t="shared" ref="F4:F5" si="0">CONCATENATE("@""", A4, """ : @[ @""", B4, """, @""", C4, """, @""", D4, """ ],")</f>
@@ -1175,58 +1306,58 @@
         <v>@"iPad2,4" : @[ @"iPad 2", @"Wi-Fi Rev A", @"A1395" ],</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17" customHeight="1">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:6" s="24" customFormat="1" ht="17" customHeight="1">
+      <c r="A9" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>@"iPad2,5" : @[ @"iPad mini", @"Wi-Fi", @"A1432" ],</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="24" customFormat="1" ht="17" customHeight="1">
+      <c r="A10" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="13" t="str">
+      <c r="F10" s="25" t="str">
         <f t="shared" si="1"/>
-        <v>@"iPad2,5" : @[ @"iPad mini 1G", @"Wi-Fi", @"A1432" ],</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="17" customHeight="1">
-      <c r="A10" s="15" t="s">
+        <v>@"iPad2,6" : @[ @"iPad mini", @"GSM", @"A1454" ],</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="24" customFormat="1" ht="17" customHeight="1">
+      <c r="A11" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="13" t="str">
+      <c r="F11" s="25" t="str">
         <f t="shared" si="1"/>
-        <v>@"iPad2,6" : @[ @"iPad mini 1G", @"GSM", @"A1454" ],</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="17" customHeight="1">
-      <c r="A11" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>@"iPad2,7" : @[ @"iPad mini 1G", @"GSM+CDMA", @"A1455" ],</v>
+        <v>@"iPad2,7" : @[ @"iPad mini", @"GSM+CDMA", @"A1455" ],</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" customHeight="1">
@@ -1255,7 +1386,7 @@
         <v>32</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>35</v>
@@ -1327,7 +1458,7 @@
         <v>39</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>44</v>
@@ -1339,16 +1470,16 @@
     </row>
     <row r="18" spans="1:6" ht="17" customHeight="1">
       <c r="A18" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="C18" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="F18" s="13" t="str">
         <f t="shared" ref="F18" si="2">CONCATENATE("@""", A18, """ : @[ @""", B18, """, @""", C18, """, @""", D18, """ ],")</f>
@@ -1357,425 +1488,537 @@
     </row>
     <row r="19" spans="1:6" ht="17" customHeight="1">
       <c r="A19" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>93</v>
       </c>
       <c r="F19" s="13" t="str">
         <f t="shared" ref="F19:F21" si="3">CONCATENATE("@""", A19, """ : @[ @""", B19, """, @""", C19, """, @""", D19, """ ],")</f>
         <v>@"iPad4,2" : @[ @"iPad Air", @"Cellular", @"A1475" ],</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="17" customHeight="1">
-      <c r="A20" s="15" t="s">
+    <row r="20" spans="1:6" s="24" customFormat="1" ht="17" customHeight="1">
+      <c r="A20" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v>@"iPad4,4" : @[ @"iPad mini 2", @"Wi‑Fi", @"A1489" ],</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="24" customFormat="1" ht="17" customHeight="1">
+      <c r="A21" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B21" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F20" s="13" t="str">
+      <c r="F21" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>@"iPad4,4" : @[ @"iPad mini 2G", @"Wi‑Fi", @"A1489" ],</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="17" customHeight="1">
-      <c r="A21" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F21" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>@"iPad4,5" : @[ @"iPad mini 2G", @"Cellular", @"A1517" ],</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="17" customHeight="1">
-      <c r="A22" s="15"/>
-      <c r="F22" s="13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="17" customHeight="1">
-      <c r="A23" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="13" t="str">
-        <f t="shared" ref="F23:F31" si="4">CONCATENATE("@""", A23, """ : @[ @""", B23, """, @""", C23, """, @""", D23, """ ],")</f>
-        <v>@"iPhone1,1" : @[ @"iPhone 2G", @"GSM", @"A1203" ],</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="17" customHeight="1">
-      <c r="A24" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F24" s="13" t="str">
+        <v>@"iPad4,5" : @[ @"iPad mini 2", @"Cellular", @"A1517" ],</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="24" customFormat="1" ht="17" customHeight="1">
+      <c r="A22" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="F22" s="25" t="str">
+        <f t="shared" ref="F22:F25" si="4">CONCATENATE("@""", A22, """ : @[ @""", B22, """, @""", C22, """, @""", D22, """ ],")</f>
+        <v>@"iPad4,6" : @[ @"iPad mini 2", @"N/A", @"A1491" ],</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="24" customFormat="1" ht="17" customHeight="1">
+      <c r="A23" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" s="25" t="str">
+        <f t="shared" ref="F23:F24" si="5">CONCATENATE("@""", A23, """ : @[ @""", B23, """, @""", C23, """, @""", D23, """ ],")</f>
+        <v>@"iPad4,7" : @[ @"iPad mini 3", @"N/A", @"A1599" ],</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="24" customFormat="1" ht="17" customHeight="1">
+      <c r="A24" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v>@"iPad4,8" : @[ @"iPad mini 3", @"N/A", @"A1600" ],</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="24" customFormat="1" ht="17" customHeight="1">
+      <c r="A25" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" s="25" t="str">
         <f t="shared" si="4"/>
-        <v>@"iPhone1,2" : @[ @"iPhone 3G", @"GSM", @"A1241 / A13241" ],</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="17" customHeight="1">
-      <c r="A25" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>@"iPhone2,1" : @[ @"iPhone 3GS", @"GSM", @"A1303 / A13251" ],</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="17" customHeight="1">
-      <c r="A26" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F26" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>@"iPhone3,1" : @[ @"iPhone 4", @"GSM", @"A1332" ],</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="17" customHeight="1">
-      <c r="A27" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F27" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>@"iPhone3,2" : @[ @"iPhone 4", @"GSM Rev A", @"-" ],</v>
+        <v>@"iPad4,9" : @[ @"iPad mini 3", @"N/A", @"A1601" ],</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="24" customFormat="1" ht="17" customHeight="1">
+      <c r="A26" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" s="25" t="str">
+        <f t="shared" ref="F26" si="6">CONCATENATE("@""", A26, """ : @[ @""", B26, """, @""", C26, """, @""", D26, """ ],")</f>
+        <v>@"iPad5,3" : @[ @"iPad Air 2", @"N/A", @"A1566" ],</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="24" customFormat="1" ht="17" customHeight="1">
+      <c r="A27" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27" s="25" t="str">
+        <f t="shared" ref="F27" si="7">CONCATENATE("@""", A27, """ : @[ @""", B27, """, @""", C27, """, @""", D27, """ ],")</f>
+        <v>@"iPad5,4" : @[ @"iPad Air 2", @"N/A", @"A1567" ],</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="17" customHeight="1">
-      <c r="A28" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>@"iPhone3,3" : @[ @"iPhone 4", @"CDMA", @"A1349" ],</v>
+      <c r="A28" s="15"/>
+      <c r="F28" s="13" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17" customHeight="1">
       <c r="A29" s="15" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>75</v>
+        <v>21</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="F29" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>@"iPhone4,1" : @[ @"iPhone 4S", @"GSM+CDMA", @"A1387 / A14311" ],</v>
+        <f t="shared" ref="F29:F37" si="8">CONCATENATE("@""", A29, """ : @[ @""", B29, """, @""", C29, """, @""", D29, """ ],")</f>
+        <v>@"iPhone1,1" : @[ @"iPhone 2G", @"GSM", @"A1203" ],</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17" customHeight="1">
       <c r="A30" s="15" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F30" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>@"iPhone5,1" : @[ @"iPhone 5", @"GSM", @"A1428" ],</v>
+        <f t="shared" si="8"/>
+        <v>@"iPhone1,2" : @[ @"iPhone 3G", @"GSM", @"A1241 / A13241" ],</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17" customHeight="1">
       <c r="A31" s="15" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F31" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>@"iPhone5,2" : @[ @"iPhone 5", @"GSM+CDMA", @"A1429 / A14421" ],</v>
+        <f t="shared" si="8"/>
+        <v>@"iPhone2,1" : @[ @"iPhone 3GS", @"GSM", @"A1303 / A13251" ],</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17" customHeight="1">
       <c r="A32" s="15" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="F32" s="13" t="str">
-        <f t="shared" ref="F32" si="5">CONCATENATE("@""", A32, """ : @[ @""", B32, """, @""", C32, """, @""", D32, """ ],")</f>
-        <v>@"iPhone5,3" : @[ @"iPhone 5C", @"GSM", @"A1456 / A1532" ],</v>
+        <f t="shared" si="8"/>
+        <v>@"iPhone3,1" : @[ @"iPhone 4", @"GSM", @"A1332" ],</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17" customHeight="1">
       <c r="A33" s="15" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F33" s="18" t="str">
-        <f t="shared" ref="F33" si="6">CONCATENATE("@""", A33, """ : @[ @""", B33, """, @""", C33, """, @""", D33, """ ],")</f>
-        <v>@"iPhone5,4" : @[ @"iPhone 5C", @"Global", @"A1507 / A1516 / A1526 / A1529" ],</v>
+        <v>72</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F33" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v>@"iPhone3,2" : @[ @"iPhone 4", @"GSM Rev A", @"-" ],</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17" customHeight="1">
       <c r="A34" s="15" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="F34" s="13" t="str">
-        <f t="shared" ref="F34" si="7">CONCATENATE("@""", A34, """ : @[ @""", B34, """, @""", C34, """, @""", D34, """ ],")</f>
-        <v>@"iPhone6,1" : @[ @"iPhone 5S", @"GSM", @"A1433 / A1533" ],</v>
+        <f t="shared" si="8"/>
+        <v>@"iPhone3,3" : @[ @"iPhone 4", @"CDMA", @"A1349" ],</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17" customHeight="1">
       <c r="A35" s="15" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>110</v>
+        <v>71</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="F35" s="13" t="str">
-        <f t="shared" ref="F35" si="8">CONCATENATE("@""", A35, """ : @[ @""", B35, """, @""", C35, """, @""", D35, """ ],")</f>
-        <v>@"iPhone6,2" : @[ @"iPhone 5S", @"Global", @"A1457 / A1518 / A1528 / A1530" ],</v>
+        <f t="shared" si="8"/>
+        <v>@"iPhone4,1" : @[ @"iPhone 4S", @"GSM+CDMA", @"A1387 / A14311" ],</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="17" customHeight="1">
-      <c r="A36" s="15"/>
-      <c r="F36" s="13" t="s">
-        <v>86</v>
+      <c r="A36" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v>@"iPhone5,1" : @[ @"iPhone 5", @"GSM", @"A1428" ],</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17" customHeight="1">
       <c r="A37" s="15" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>81</v>
+        <v>67</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="F37" s="13" t="str">
-        <f t="shared" ref="F37:F41" si="9">CONCATENATE("@""", A37, """ : @[ @""", B37, """, @""", C37, """, @""", D37, """ ],")</f>
-        <v>@"iPod1,1" : @[ @"iPod touch 1G", @"-", @"A1213" ],</v>
+        <f t="shared" si="8"/>
+        <v>@"iPhone5,2" : @[ @"iPhone 5", @"GSM+CDMA", @"A1429 / A14421" ],</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="17" customHeight="1">
       <c r="A38" s="15" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>81</v>
+        <v>102</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="F38" s="13" t="str">
-        <f t="shared" si="9"/>
-        <v>@"iPod2,1" : @[ @"iPod touch 2G", @"-", @"A1288" ],</v>
+        <f t="shared" ref="F38" si="9">CONCATENATE("@""", A38, """ : @[ @""", B38, """, @""", C38, """, @""", D38, """ ],")</f>
+        <v>@"iPhone5,3" : @[ @"iPhone 5C", @"GSM", @"A1456 / A1532" ],</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="17" customHeight="1">
       <c r="A39" s="15" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="13" t="str">
-        <f t="shared" si="9"/>
-        <v>@"iPod3,1" : @[ @"iPod touch 3G", @"-", @"A1318" ],</v>
+        <v>102</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F39" s="17" t="str">
+        <f t="shared" ref="F39" si="10">CONCATENATE("@""", A39, """ : @[ @""", B39, """, @""", C39, """, @""", D39, """ ],")</f>
+        <v>@"iPhone5,4" : @[ @"iPhone 5C", @"Global", @"A1507 / A1516 / A1526 / A1529" ],</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="17" customHeight="1">
       <c r="A40" s="15" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>81</v>
+        <v>106</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="F40" s="13" t="str">
-        <f t="shared" si="9"/>
-        <v>@"iPod4,1" : @[ @"iPod touch 4G", @"-", @"A1367" ],</v>
+        <f t="shared" ref="F40" si="11">CONCATENATE("@""", A40, """ : @[ @""", B40, """, @""", C40, """, @""", D40, """ ],")</f>
+        <v>@"iPhone6,1" : @[ @"iPhone 5S", @"GSM", @"A1433 / A1533" ],</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="17" customHeight="1">
       <c r="A41" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F41" s="13" t="str">
+        <f t="shared" ref="F41:F42" si="12">CONCATENATE("@""", A41, """ : @[ @""", B41, """, @""", C41, """, @""", D41, """ ],")</f>
+        <v>@"iPhone6,2" : @[ @"iPhone 5S", @"Global", @"A1457 / A1518 / A1528 / A1530" ],</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="24" customFormat="1" ht="17" customHeight="1">
+      <c r="A42" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="F42" s="25" t="str">
+        <f t="shared" si="12"/>
+        <v>@"iPhone7,2" : @[ @"iPhone 6", @"N/A", @"A1549 / A1586" ],</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="24" customFormat="1" ht="17" customHeight="1">
+      <c r="A43" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="F43" s="25" t="str">
+        <f t="shared" ref="F43" si="13">CONCATENATE("@""", A43, """ : @[ @""", B43, """, @""", C43, """, @""", D43, """ ],")</f>
+        <v>@"iPhone7,1" : @[ @"iPhone 6 Plus", @"N/A", @"A1522 / A1524" ],</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="17" customHeight="1">
+      <c r="A44" s="15"/>
+      <c r="F44" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="17" customHeight="1">
+      <c r="A45" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="13" t="str">
+        <f t="shared" ref="F45:F49" si="14">CONCATENATE("@""", A45, """ : @[ @""", B45, """, @""", C45, """, @""", D45, """ ],")</f>
+        <v>@"iPod1,1" : @[ @"iPod touch 1G", @"-", @"A1213" ],</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="17" customHeight="1">
+      <c r="A46" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="13" t="str">
+        <f t="shared" si="14"/>
+        <v>@"iPod2,1" : @[ @"iPod touch 2G", @"-", @"A1288" ],</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="17" customHeight="1">
+      <c r="A47" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="13" t="str">
+        <f t="shared" si="14"/>
+        <v>@"iPod3,1" : @[ @"iPod touch 3G", @"-", @"A1318" ],</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="17" customHeight="1">
+      <c r="A48" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="13" t="str">
+        <f t="shared" si="14"/>
+        <v>@"iPod4,1" : @[ @"iPod touch 4G", @"-", @"A1367" ],</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="17" customHeight="1">
+      <c r="A49" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B49" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D41" s="6" t="s">
+      <c r="C49" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="F41" s="13" t="str">
-        <f t="shared" si="9"/>
+      <c r="D49" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F49" s="13" t="str">
+        <f t="shared" si="14"/>
         <v>@"iPod5,1" : @[ @"iPod touch 5G", @"-", @"A1421 / A1509" ],</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="15"/>
-      <c r="F42" s="13"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="15"/>
-      <c r="F43" s="13"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="15"/>
-      <c r="F44" s="13"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="15"/>
-      <c r="F45" s="13"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="15"/>
-      <c r="F46" s="13"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="15"/>
-      <c r="F47" s="13"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="15"/>
-      <c r="F48" s="13"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="15"/>
-      <c r="F49" s="13"/>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="15"/>
@@ -1786,35 +2029,35 @@
       <c r="F51" s="13"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="16"/>
+      <c r="A52" s="15"/>
       <c r="F52" s="13"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="16"/>
+      <c r="A53" s="15"/>
       <c r="F53" s="13"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="16"/>
+      <c r="A54" s="15"/>
       <c r="F54" s="13"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="16"/>
+      <c r="A55" s="15"/>
       <c r="F55" s="13"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="16"/>
+      <c r="A56" s="15"/>
       <c r="F56" s="13"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="16"/>
+      <c r="A57" s="15"/>
       <c r="F57" s="13"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="16"/>
+      <c r="A58" s="15"/>
       <c r="F58" s="13"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="16"/>
+      <c r="A59" s="15"/>
       <c r="F59" s="13"/>
     </row>
     <row r="60" spans="1:6">
@@ -1886,63 +2129,71 @@
       <c r="F76" s="13"/>
     </row>
     <row r="77" spans="1:6">
+      <c r="A77" s="16"/>
       <c r="F77" s="13"/>
     </row>
     <row r="78" spans="1:6">
+      <c r="A78" s="16"/>
       <c r="F78" s="13"/>
     </row>
     <row r="79" spans="1:6">
+      <c r="A79" s="16"/>
       <c r="F79" s="13"/>
     </row>
     <row r="80" spans="1:6">
+      <c r="A80" s="16"/>
       <c r="F80" s="13"/>
     </row>
-    <row r="81" spans="6:6">
+    <row r="81" spans="1:6">
+      <c r="A81" s="16"/>
       <c r="F81" s="13"/>
     </row>
-    <row r="82" spans="6:6">
+    <row r="82" spans="1:6">
+      <c r="A82" s="16"/>
       <c r="F82" s="13"/>
     </row>
-    <row r="83" spans="6:6">
+    <row r="83" spans="1:6">
+      <c r="A83" s="16"/>
       <c r="F83" s="13"/>
     </row>
-    <row r="84" spans="6:6">
+    <row r="84" spans="1:6">
+      <c r="A84" s="16"/>
       <c r="F84" s="13"/>
     </row>
-    <row r="85" spans="6:6">
+    <row r="85" spans="1:6">
       <c r="F85" s="13"/>
     </row>
-    <row r="86" spans="6:6">
+    <row r="86" spans="1:6">
       <c r="F86" s="13"/>
     </row>
-    <row r="87" spans="6:6">
+    <row r="87" spans="1:6">
       <c r="F87" s="13"/>
     </row>
-    <row r="88" spans="6:6">
+    <row r="88" spans="1:6">
       <c r="F88" s="13"/>
     </row>
-    <row r="89" spans="6:6">
+    <row r="89" spans="1:6">
       <c r="F89" s="13"/>
     </row>
-    <row r="90" spans="6:6">
+    <row r="90" spans="1:6">
       <c r="F90" s="13"/>
     </row>
-    <row r="91" spans="6:6">
+    <row r="91" spans="1:6">
       <c r="F91" s="13"/>
     </row>
-    <row r="92" spans="6:6">
+    <row r="92" spans="1:6">
       <c r="F92" s="13"/>
     </row>
-    <row r="93" spans="6:6">
+    <row r="93" spans="1:6">
       <c r="F93" s="13"/>
     </row>
-    <row r="94" spans="6:6">
+    <row r="94" spans="1:6">
       <c r="F94" s="13"/>
     </row>
-    <row r="95" spans="6:6">
+    <row r="95" spans="1:6">
       <c r="F95" s="13"/>
     </row>
-    <row r="96" spans="6:6">
+    <row r="96" spans="1:6">
       <c r="F96" s="13"/>
     </row>
     <row r="97" spans="6:6">
@@ -2040,6 +2291,30 @@
     </row>
     <row r="128" spans="6:6">
       <c r="F128" s="13"/>
+    </row>
+    <row r="129" spans="6:6">
+      <c r="F129" s="13"/>
+    </row>
+    <row r="130" spans="6:6">
+      <c r="F130" s="13"/>
+    </row>
+    <row r="131" spans="6:6">
+      <c r="F131" s="13"/>
+    </row>
+    <row r="132" spans="6:6">
+      <c r="F132" s="13"/>
+    </row>
+    <row r="133" spans="6:6">
+      <c r="F133" s="13"/>
+    </row>
+    <row r="134" spans="6:6">
+      <c r="F134" s="13"/>
+    </row>
+    <row r="135" spans="6:6">
+      <c r="F135" s="13"/>
+    </row>
+    <row r="136" spans="6:6">
+      <c r="F136" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
